--- a/Excels/data/2009.xlsx
+++ b/Excels/data/2009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C324F7C-F939-42D7-A5A2-5F011A8AC464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7A6FF-3FE5-4754-9EB1-8413D544B5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="5895" windowWidth="16200" windowHeight="9360" activeTab="2" xr2:uid="{A0F1E3CD-F361-4A7D-8A19-C0A564414E98}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="18075" windowHeight="12255" activeTab="2" xr2:uid="{A0F1E3CD-F361-4A7D-8A19-C0A564414E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="160">
   <si>
     <t>Round</t>
   </si>
@@ -584,6 +584,12 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>motogp</t>
   </si>
 </sst>
 </file>
@@ -638,15 +644,21 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -664,9 +676,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -818,8 +827,8 @@
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" backgroundRefresh="0" connectionId="5" xr16:uid="{58A912A6-6460-4A9C-AD0E-32A124169D98}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
+  <queryTableRefresh nextId="9" unboundColumnsRight="1">
+    <queryTableFields count="8">
       <queryTableField id="1" name="Team" tableColumnId="1"/>
       <queryTableField id="2" name="Constructor" tableColumnId="2"/>
       <queryTableField id="3" name="Motorcycle" tableColumnId="3"/>
@@ -827,6 +836,7 @@
       <queryTableField id="4" name="No." tableColumnId="4"/>
       <queryTableField id="5" name="Rider" tableColumnId="5"/>
       <queryTableField id="6" name="Rounds" tableColumnId="6"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="7"/>
     </queryTableFields>
   </queryTableRefresh>
   <extLst>
@@ -842,9 +852,9 @@
   <autoFilter ref="A1:D18" xr:uid="{6D85E28B-C78C-4EBA-AE78-BC399863D894}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D000B2C1-50E0-4140-8509-D74CA7627481}" uniqueName="1" name="Round" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{6FBEFF2F-4CA9-4719-871A-BC4FE0470206}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{71886913-4A6B-4B17-8D8A-0D079604EF7E}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{716BC90A-6055-4407-BEB0-30184ACA51F2}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{6FBEFF2F-4CA9-4719-871A-BC4FE0470206}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{71886913-4A6B-4B17-8D8A-0D079604EF7E}" uniqueName="3" name="Grand Prix" queryTableFieldId="3" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{716BC90A-6055-4407-BEB0-30184ACA51F2}" uniqueName="4" name="Circuit" queryTableFieldId="4" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -855,26 +865,26 @@
   <autoFilter ref="A1:V24" xr:uid="{1546B7B0-164B-4212-A7F7-71C35B10B96F}"/>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{B810357C-CFB0-416E-848D-F63F0803000E}" uniqueName="1" name="Pos" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{0D57ECCD-65E6-4C11-A1AB-F07242C69E67}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{60F2D2EF-C358-4B71-929F-31A5613CD0E0}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{3D4A012A-8817-4026-AA89-1AA7841ADCCA}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{1CA1FAB3-071B-4009-9BBF-F03E15A5085B}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{8B726730-C73A-4096-B756-D3733A3D20D1}" uniqueName="6" name="JPN" queryTableFieldId="6" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{7B3A7285-4150-4785-80BA-6D0AD76681E0}" uniqueName="7" name="ESP" queryTableFieldId="7" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{C1FF2584-4A13-472F-92DE-269C0B8E1E39}" uniqueName="8" name="FRA" queryTableFieldId="8" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{681DB7F3-6CB9-4C96-A094-0FFBB63D4103}" uniqueName="9" name="ITA" queryTableFieldId="9" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{18A979E8-F7B4-4FEA-8DD9-91F5F85D79C1}" uniqueName="10" name="CAT" queryTableFieldId="10" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{5214C374-0804-45C2-86AD-4DD8544FDEEF}" uniqueName="11" name="NED" queryTableFieldId="11" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{31F50AEA-A962-48AA-BEE7-414B270C5DAA}" uniqueName="12" name="USA" queryTableFieldId="12" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{746D440F-2523-4D3C-9389-576A96214283}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{5BC7EA20-CC39-4D8C-A84C-5E018CC3193E}" uniqueName="14" name="GBR" queryTableFieldId="14" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{54A2D49F-9FCF-4DB5-A59C-FEA47C2F7586}" uniqueName="15" name="CZE" queryTableFieldId="15" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{740F8B23-959A-49D9-8D2D-ED1A55C4E84A}" uniqueName="16" name="INP" queryTableFieldId="16" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{4883ADF9-6B84-41F8-88A4-BCBC9D844A7C}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{C0FA2D79-53EB-48C6-BCBA-19E12037743A}" uniqueName="18" name="POR" queryTableFieldId="18" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{B08DBF50-456E-472A-B6FA-ED94A2D8505F}" uniqueName="19" name="AUS" queryTableFieldId="19" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{CB904D37-A097-4EA6-B1C1-FDA1512C3B49}" uniqueName="20" name="MAL" queryTableFieldId="20" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{79BA95A1-AFA6-4717-A1FD-AF8585904E13}" uniqueName="21" name="VAL" queryTableFieldId="21" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{0D57ECCD-65E6-4C11-A1AB-F07242C69E67}" uniqueName="2" name="Rider" queryTableFieldId="2" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{60F2D2EF-C358-4B71-929F-31A5613CD0E0}" uniqueName="3" name="Bike" queryTableFieldId="3" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{3D4A012A-8817-4026-AA89-1AA7841ADCCA}" uniqueName="4" name="Team" queryTableFieldId="4" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{1CA1FAB3-071B-4009-9BBF-F03E15A5085B}" uniqueName="5" name="QAT" queryTableFieldId="5" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{8B726730-C73A-4096-B756-D3733A3D20D1}" uniqueName="6" name="JPN" queryTableFieldId="6" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{7B3A7285-4150-4785-80BA-6D0AD76681E0}" uniqueName="7" name="ESP" queryTableFieldId="7" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{C1FF2584-4A13-472F-92DE-269C0B8E1E39}" uniqueName="8" name="FRA" queryTableFieldId="8" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{681DB7F3-6CB9-4C96-A094-0FFBB63D4103}" uniqueName="9" name="ITA" queryTableFieldId="9" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{18A979E8-F7B4-4FEA-8DD9-91F5F85D79C1}" uniqueName="10" name="CAT" queryTableFieldId="10" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{5214C374-0804-45C2-86AD-4DD8544FDEEF}" uniqueName="11" name="NED" queryTableFieldId="11" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{31F50AEA-A962-48AA-BEE7-414B270C5DAA}" uniqueName="12" name="USA" queryTableFieldId="12" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{746D440F-2523-4D3C-9389-576A96214283}" uniqueName="13" name="GER" queryTableFieldId="13" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{5BC7EA20-CC39-4D8C-A84C-5E018CC3193E}" uniqueName="14" name="GBR" queryTableFieldId="14" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{54A2D49F-9FCF-4DB5-A59C-FEA47C2F7586}" uniqueName="15" name="CZE" queryTableFieldId="15" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{740F8B23-959A-49D9-8D2D-ED1A55C4E84A}" uniqueName="16" name="INP" queryTableFieldId="16" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{4883ADF9-6B84-41F8-88A4-BCBC9D844A7C}" uniqueName="17" name="RSM" queryTableFieldId="17" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{C0FA2D79-53EB-48C6-BCBA-19E12037743A}" uniqueName="18" name="POR" queryTableFieldId="18" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{B08DBF50-456E-472A-B6FA-ED94A2D8505F}" uniqueName="19" name="AUS" queryTableFieldId="19" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{CB904D37-A097-4EA6-B1C1-FDA1512C3B49}" uniqueName="20" name="MAL" queryTableFieldId="20" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{79BA95A1-AFA6-4717-A1FD-AF8585904E13}" uniqueName="21" name="VAL" queryTableFieldId="21" dataDxfId="8"/>
     <tableColumn id="22" xr3:uid="{3536C047-780F-4F7C-8FD5-5571946BA455}" uniqueName="22" name="Pts" queryTableFieldId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -882,16 +892,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{829E0605-C9CD-47DB-B503-3486AB6BB6D4}" name="Table_2" displayName="Table_2" ref="A1:G25" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G25" xr:uid="{829E0605-C9CD-47DB-B503-3486AB6BB6D4}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FA020C20-6F9D-4497-AFFE-DB83F2566173}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{6FF398C1-B13F-4DE9-BA0C-EC96679B8402}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{5F90634E-C529-4A13-B7D5-1253560F9C76}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{4E026312-FBBB-4F1B-8FE2-CD9690AE8118}" uniqueName="8" name="Tyres" queryTableFieldId="7" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{33F13B38-9537-4341-9F9D-1ACF4613BEB2}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{829E0605-C9CD-47DB-B503-3486AB6BB6D4}" name="Table_2" displayName="Table_2" ref="A1:H25" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:H25" xr:uid="{829E0605-C9CD-47DB-B503-3486AB6BB6D4}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FA020C20-6F9D-4497-AFFE-DB83F2566173}" uniqueName="1" name="Team" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{6FF398C1-B13F-4DE9-BA0C-EC96679B8402}" uniqueName="2" name="Constructor" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5F90634E-C529-4A13-B7D5-1253560F9C76}" uniqueName="3" name="Motorcycle" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{4E026312-FBBB-4F1B-8FE2-CD9690AE8118}" uniqueName="8" name="Tyres" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{33F13B38-9537-4341-9F9D-1ACF4613BEB2}" uniqueName="4" name="No." queryTableFieldId="4" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{90B4AA9E-19CF-4531-9BE8-4A2158654957}" uniqueName="5" name="Rider" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{8099E6AE-2A50-4E05-8C31-F1EF22DF203D}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{8099E6AE-2A50-4E05-8C31-F1EF22DF203D}" uniqueName="6" name="Rounds" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{45C82937-DF56-47ED-AB97-DA04F367754C}" uniqueName="7" name="Class" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1226,13 +1237,13 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1240,13 +1251,13 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1254,13 +1265,13 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1268,13 +1279,13 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1282,13 +1293,13 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1296,13 +1307,13 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1310,13 +1321,13 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1324,13 +1335,13 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1338,13 +1349,13 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1352,13 +1363,13 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1366,13 +1377,13 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1380,13 +1391,13 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1394,13 +1405,13 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1408,13 +1419,13 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1422,13 +1433,13 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1436,13 +1447,13 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1450,13 +1461,13 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1571,64 +1582,64 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>136</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>135</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>138</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" t="s">
         <v>135</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q2" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" t="s">
         <v>140</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" t="s">
         <v>134</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" t="s">
         <v>137</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" t="s">
         <v>134</v>
       </c>
       <c r="V2">
@@ -1639,64 +1650,64 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>135</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>134</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P3" t="s">
         <v>135</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="S3" t="s">
+        <v>139</v>
+      </c>
+      <c r="T3" t="s">
         <v>140</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="U3" t="s">
         <v>137</v>
       </c>
       <c r="V3">
@@ -1707,64 +1718,64 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>134</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" t="s">
         <v>135</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" t="s">
         <v>142</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" t="s">
         <v>134</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" t="s">
         <v>143</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" t="s">
         <v>137</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" t="s">
         <v>137</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" t="s">
         <v>137</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T4" t="s">
         <v>134</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U4" t="s">
         <v>135</v>
       </c>
       <c r="V4">
@@ -1775,58 +1786,55 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>144</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>135</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" t="s">
         <v>140</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" t="s">
         <v>145</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="R5" t="s">
         <v>134</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" t="s">
         <v>135</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" t="s">
         <v>135</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="U5" t="s">
         <v>146</v>
       </c>
       <c r="V5">
@@ -1837,64 +1845,64 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>141</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>148</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>148</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" t="s">
         <v>142</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" t="s">
         <v>148</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="s">
         <v>138</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" t="s">
         <v>138</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" t="s">
         <v>138</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" t="s">
         <v>149</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" t="s">
         <v>140</v>
       </c>
       <c r="V6">
@@ -1905,64 +1913,64 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>138</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>151</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>140</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N7" s="1" t="s">
+      <c r="K7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N7" t="s">
         <v>135</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" t="s">
         <v>140</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="s">
         <v>140</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" t="s">
         <v>140</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" t="s">
         <v>148</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" t="s">
         <v>141</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="T7" t="s">
+        <v>139</v>
+      </c>
+      <c r="U7" t="s">
         <v>151</v>
       </c>
       <c r="V7">
@@ -1973,64 +1981,64 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>152</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>142</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>143</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>145</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="J8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K8" t="s">
         <v>147</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>141</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" t="s">
         <v>141</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="N8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O8" t="s">
         <v>137</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" t="s">
         <v>142</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" t="s">
         <v>141</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" t="s">
         <v>141</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" t="s">
         <v>143</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" t="s">
         <v>148</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" t="s">
         <v>141</v>
       </c>
       <c r="V8">
@@ -2041,64 +2049,64 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>141</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>152</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>147</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>143</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" t="s">
         <v>138</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" t="s">
         <v>140</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="Q9" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" t="s">
+        <v>139</v>
+      </c>
+      <c r="S9" t="s">
         <v>140</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T9" t="s">
         <v>147</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="U9" t="s">
         <v>143</v>
       </c>
       <c r="V9">
@@ -2109,64 +2117,64 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" t="s">
         <v>148</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>151</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>138</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>138</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>142</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="1" t="s">
+      <c r="L10" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="s">
         <v>148</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" t="s">
         <v>138</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S10" s="1" t="s">
+      <c r="R10" t="s">
+        <v>139</v>
+      </c>
+      <c r="S10" t="s">
         <v>147</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T10" t="s">
         <v>142</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="U10" t="s">
         <v>145</v>
       </c>
       <c r="V10">
@@ -2177,64 +2185,64 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>145</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>71</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" t="s">
         <v>148</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>148</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="O11" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" t="s">
         <v>147</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" t="s">
         <v>148</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T11" t="s">
         <v>151</v>
       </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" t="s">
         <v>110</v>
       </c>
       <c r="V11">
@@ -2245,64 +2253,64 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>151</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>148</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>142</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="M12" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" t="s">
         <v>137</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" t="s">
         <v>143</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="s">
         <v>147</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" t="s">
         <v>147</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" t="s">
         <v>71</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" t="s">
         <v>151</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="T12" t="s">
+        <v>139</v>
+      </c>
+      <c r="U12" t="s">
         <v>71</v>
       </c>
       <c r="V12">
@@ -2313,64 +2321,64 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>148</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>141</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>143</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>138</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" t="s">
         <v>149</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>149</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" t="s">
         <v>142</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" t="s">
         <v>143</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" t="s">
         <v>71</v>
       </c>
-      <c r="T13" s="1" t="s">
+      <c r="T13" t="s">
         <v>141</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="U13" t="s">
         <v>152</v>
       </c>
       <c r="V13">
@@ -2381,64 +2389,64 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
         <v>152</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>143</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>151</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>138</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" t="s">
         <v>151</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>152</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" t="s">
         <v>141</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" t="s">
         <v>137</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" t="s">
+        <v>139</v>
+      </c>
+      <c r="R14" t="s">
         <v>151</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" t="s">
         <v>152</v>
       </c>
-      <c r="T14" s="1" t="s">
+      <c r="T14" t="s">
         <v>138</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="U14" t="s">
         <v>138</v>
       </c>
       <c r="V14">
@@ -2449,64 +2457,64 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>142</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>142</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>149</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>141</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>153</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>141</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" t="s">
         <v>142</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" t="s">
         <v>141</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" t="s">
         <v>143</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" t="s">
         <v>142</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" t="s">
         <v>145</v>
       </c>
-      <c r="T15" s="1" t="s">
+      <c r="T15" t="s">
         <v>152</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U15" t="s">
         <v>147</v>
       </c>
       <c r="V15">
@@ -2517,56 +2525,52 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="G16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>142</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="s">
         <v>145</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>143</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="S16" s="1" t="s">
+      <c r="R16" t="s">
+        <v>139</v>
+      </c>
+      <c r="S16" t="s">
         <v>142</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" t="s">
         <v>143</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U16" t="s">
         <v>142</v>
       </c>
       <c r="V16">
@@ -2577,38 +2581,24 @@
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="O17" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" t="s">
         <v>151</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" t="s">
         <v>148</v>
       </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
       <c r="V17">
         <v>71</v>
       </c>
@@ -2617,62 +2607,60 @@
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>152</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>142</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>136</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>145</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>147</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" t="s">
         <v>147</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>151</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" t="s">
         <v>147</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="P18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" t="s">
         <v>149</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" t="s">
         <v>149</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" t="s">
         <v>146</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
       <c r="V18">
         <v>38</v>
       </c>
@@ -2681,54 +2669,49 @@
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" s="1" t="s">
+      <c r="L19" t="s">
+        <v>139</v>
+      </c>
+      <c r="M19" t="s">
         <v>152</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>147</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" t="s">
         <v>149</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" t="s">
         <v>145</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" t="s">
         <v>145</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" t="s">
         <v>145</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" t="s">
         <v>149</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="T19" t="s">
         <v>145</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="U19" t="s">
         <v>136</v>
       </c>
       <c r="V19">
@@ -2739,38 +2722,25 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1" t="s">
+      <c r="P20" t="s">
         <v>149</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1" t="s">
+      <c r="T20" t="s">
         <v>71</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="U20" t="s">
         <v>149</v>
       </c>
       <c r="V20">
@@ -2781,44 +2751,33 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>149</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>152</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>149</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="L21" t="s">
+        <v>139</v>
+      </c>
       <c r="V21">
         <v>12</v>
       </c>
@@ -2827,32 +2786,16 @@
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1" t="s">
+      <c r="U22" t="s">
         <v>148</v>
       </c>
       <c r="V22">
@@ -2863,79 +2806,53 @@
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>149</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="I23" t="s">
+        <v>139</v>
+      </c>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" t="s">
         <v>152</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
       <c r="V23">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="O24" t="s">
+        <v>139</v>
+      </c>
       <c r="V24">
         <v>0</v>
       </c>
@@ -2950,10 +2867,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BAB45C-00CA-4B49-9EAF-3FC1FE79C4E6}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2962,12 +2879,12 @@
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -2980,7 +2897,7 @@
       <c r="D1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F1" t="s">
@@ -2989,557 +2906,632 @@
       <c r="G1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>27</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>36</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>157</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>69</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="H4" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>157</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H5" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>84</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="H6" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>157</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H7" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>157</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>88</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H8" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>157</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>44</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H9" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>59</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="H10" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>157</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="H11" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="H12" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>15</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="H13" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>24</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="H15" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>72</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H16" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>157</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="H17" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>157</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>33</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="H18" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>7</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>65</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="H20" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>157</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>46</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>99</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="H22" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>11</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>5</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="H24" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>111</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>52</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>67</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3645,1104 +3637,1104 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3" t="s">
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="2" t="s">
+      <c r="K8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="N9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="R9" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="O10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N11" s="3" t="s">
+      <c r="L11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="R11" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="R12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="N14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="R15" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
+      <c r="H16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="P16" s="2" t="s">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R16" s="2" t="s">
+      <c r="R16" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N18" s="2" t="s">
+      <c r="M18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R20" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="I21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="F23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/data/2009.xlsx
+++ b/Excels/data/2009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21910FFD-0A7A-4AC1-92CD-2895EE95EA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3144CD2-A266-4339-9D00-46465FBB8C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="18075" windowHeight="12255" tabRatio="734" activeTab="9" xr2:uid="{A0F1E3CD-F361-4A7D-8A19-C0A564414E98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="734" activeTab="5" xr2:uid="{A0F1E3CD-F361-4A7D-8A19-C0A564414E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="477">
   <si>
     <t>Round</t>
   </si>
@@ -1560,6 +1560,9 @@
   </si>
   <si>
     <t>125cc</t>
+  </si>
+  <si>
+    <t>Raffaele de Rosa</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9205405D-7E9E-4E58-A60C-8DB8AE926E83}">
   <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -11326,8 +11329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181CA592-2680-41CA-AE82-BCD67AD965B5}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11409,7 +11412,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>476</v>
       </c>
       <c r="G3" t="s">
         <v>344</v>
@@ -12757,7 +12760,7 @@
   <dimension ref="A1:AA54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13130,7 +13133,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
         <v>474</v>

--- a/Excels/data/2009.xlsx
+++ b/Excels/data/2009.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3144CD2-A266-4339-9D00-46465FBB8C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02497BBA-B92F-4CD4-B725-8EDC2EB22B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="734" activeTab="5" xr2:uid="{A0F1E3CD-F361-4A7D-8A19-C0A564414E98}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18075" windowHeight="12255" tabRatio="734" firstSheet="3" activeTab="9" xr2:uid="{A0F1E3CD-F361-4A7D-8A19-C0A564414E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4659" uniqueCount="507">
   <si>
     <t>Round</t>
   </si>
@@ -1563,6 +1563,96 @@
   </si>
   <si>
     <t>Raffaele de Rosa</t>
+  </si>
+  <si>
+    <t>(HP)2</t>
+  </si>
+  <si>
+    <t>(HP)5</t>
+  </si>
+  <si>
+    <t>(HP)7</t>
+  </si>
+  <si>
+    <t>(HP)4</t>
+  </si>
+  <si>
+    <t>(HP)12</t>
+  </si>
+  <si>
+    <t>(HP)3</t>
+  </si>
+  <si>
+    <t>(HP)1</t>
+  </si>
+  <si>
+    <t>(HP)Ret</t>
+  </si>
+  <si>
+    <t>(HP)18</t>
+  </si>
+  <si>
+    <t>(HP)8</t>
+  </si>
+  <si>
+    <t>(HP)14</t>
+  </si>
+  <si>
+    <t>(HP)6</t>
+  </si>
+  <si>
+    <t>(HP)11</t>
+  </si>
+  <si>
+    <t>(HP)17</t>
+  </si>
+  <si>
+    <t>(HP)13</t>
+  </si>
+  <si>
+    <t>(HP)20</t>
+  </si>
+  <si>
+    <t>(HP)9</t>
+  </si>
+  <si>
+    <t>(HP)10</t>
+  </si>
+  <si>
+    <t>(HP)19</t>
+  </si>
+  <si>
+    <t>(HP)15</t>
+  </si>
+  <si>
+    <t>(HP)22</t>
+  </si>
+  <si>
+    <t>(HP)27</t>
+  </si>
+  <si>
+    <t>(HP)21</t>
+  </si>
+  <si>
+    <t>(HP)23</t>
+  </si>
+  <si>
+    <t>(HP)16</t>
+  </si>
+  <si>
+    <t>(HP)25</t>
+  </si>
+  <si>
+    <t>(HP)24</t>
+  </si>
+  <si>
+    <t>(HP)28</t>
+  </si>
+  <si>
+    <t>(HP)26</t>
+  </si>
+  <si>
+    <t>(HP)DNS</t>
   </si>
 </sst>
 </file>
@@ -2810,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9205405D-7E9E-4E58-A60C-8DB8AE926E83}">
   <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,7 +2916,7 @@
       <c r="B1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" s="4">
@@ -2909,8 +2999,8 @@
       <c r="B2" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>134</v>
+      <c r="C2" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>134</v>
@@ -2965,8 +3055,8 @@
       <c r="B3" t="s">
         <v>475</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>138</v>
+      <c r="C3" s="1" t="s">
+        <v>478</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>143</v>
@@ -3021,8 +3111,8 @@
       <c r="B4" t="s">
         <v>475</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>148</v>
+      <c r="C4" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>110</v>
@@ -3077,8 +3167,8 @@
       <c r="B5" t="s">
         <v>475</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>140</v>
+      <c r="C5" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>137</v>
@@ -3133,8 +3223,8 @@
       <c r="B6" t="s">
         <v>475</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>147</v>
+      <c r="C6" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>198</v>
@@ -3189,8 +3279,8 @@
       <c r="B7" t="s">
         <v>475</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>137</v>
+      <c r="C7" s="1" t="s">
+        <v>482</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>141</v>
@@ -3245,8 +3335,8 @@
       <c r="B8" t="s">
         <v>475</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>135</v>
+      <c r="C8" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>135</v>
@@ -3301,8 +3391,8 @@
       <c r="B9" t="s">
         <v>475</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>139</v>
+      <c r="C9" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>138</v>
@@ -3357,8 +3447,8 @@
       <c r="B10" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>196</v>
+      <c r="C10" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>148</v>
@@ -3413,8 +3503,8 @@
       <c r="B11" t="s">
         <v>475</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>151</v>
+      <c r="C11" s="1" t="s">
+        <v>486</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>140</v>
@@ -3469,8 +3559,8 @@
       <c r="B12" t="s">
         <v>475</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>145</v>
+      <c r="C12" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>152</v>
@@ -3525,8 +3615,8 @@
       <c r="B13" t="s">
         <v>475</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>141</v>
+      <c r="C13" s="1" t="s">
+        <v>488</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>151</v>
@@ -3581,8 +3671,8 @@
       <c r="B14" t="s">
         <v>475</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
+      <c r="C14" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
@@ -3637,8 +3727,8 @@
       <c r="B15" t="s">
         <v>475</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>110</v>
+      <c r="C15" s="1" t="s">
+        <v>490</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>202</v>
@@ -3693,8 +3783,8 @@
       <c r="B16" t="s">
         <v>475</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>149</v>
+      <c r="C16" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>139</v>
@@ -3749,8 +3839,8 @@
       <c r="B17" t="s">
         <v>475</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>201</v>
+      <c r="C17" s="1" t="s">
+        <v>492</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>201</v>
@@ -3805,8 +3895,8 @@
       <c r="B18" t="s">
         <v>475</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>142</v>
+      <c r="C18" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>71</v>
@@ -3861,8 +3951,8 @@
       <c r="B19" t="s">
         <v>475</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>143</v>
+      <c r="C19" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>149</v>
@@ -3917,8 +4007,8 @@
       <c r="B20" t="s">
         <v>475</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>198</v>
+      <c r="C20" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>145</v>
@@ -3973,8 +4063,8 @@
       <c r="B21" t="s">
         <v>475</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>152</v>
+      <c r="C21" s="1" t="s">
+        <v>496</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>139</v>
@@ -4029,8 +4119,8 @@
       <c r="B22" t="s">
         <v>475</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>202</v>
+      <c r="C22" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>196</v>
@@ -4085,7 +4175,7 @@
       <c r="B23" t="s">
         <v>475</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>203</v>
@@ -4113,7 +4203,7 @@
       <c r="B24" t="s">
         <v>475</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -4157,7 +4247,7 @@
       <c r="B25" t="s">
         <v>475</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4187,8 +4277,8 @@
       <c r="B26" t="s">
         <v>475</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>200</v>
+      <c r="C26" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>147</v>
@@ -4243,8 +4333,8 @@
       <c r="B27" t="s">
         <v>475</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>139</v>
+      <c r="C27" s="1" t="s">
+        <v>484</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>146</v>
@@ -4275,7 +4365,7 @@
       <c r="B28" t="s">
         <v>475</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -4317,8 +4407,8 @@
       <c r="B29" t="s">
         <v>475</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>203</v>
+      <c r="C29" s="1" t="s">
+        <v>499</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>139</v>
@@ -4367,7 +4457,7 @@
       <c r="B30" t="s">
         <v>475</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -4395,8 +4485,8 @@
       <c r="B31" t="s">
         <v>475</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>206</v>
+      <c r="C31" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>139</v>
@@ -4449,8 +4539,8 @@
       <c r="B32" t="s">
         <v>475</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>136</v>
+      <c r="C32" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>136</v>
@@ -4505,7 +4595,7 @@
       <c r="B33" t="s">
         <v>475</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4531,7 +4621,7 @@
       <c r="B34" t="s">
         <v>475</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -4557,7 +4647,7 @@
       <c r="B35" t="s">
         <v>475</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
@@ -4583,7 +4673,7 @@
       <c r="B36" t="s">
         <v>475</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="2"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -4609,7 +4699,7 @@
       <c r="B37" t="s">
         <v>475</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -4635,7 +4725,7 @@
       <c r="B38" t="s">
         <v>475</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -4661,8 +4751,8 @@
       <c r="B39" t="s">
         <v>475</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>210</v>
+      <c r="C39" s="1" t="s">
+        <v>502</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>206</v>
@@ -4707,7 +4797,7 @@
       <c r="B40" t="s">
         <v>475</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -4737,7 +4827,7 @@
       <c r="B41" t="s">
         <v>475</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
         <v>202</v>
@@ -4769,7 +4859,7 @@
       <c r="B42" t="s">
         <v>475</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4795,8 +4885,8 @@
       <c r="B43" t="s">
         <v>475</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>208</v>
+      <c r="C43" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>210</v>
@@ -4851,7 +4941,7 @@
       <c r="B44" t="s">
         <v>475</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
@@ -4883,7 +4973,7 @@
       <c r="B45" t="s">
         <v>475</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -4917,7 +5007,7 @@
       <c r="B46" t="s">
         <v>475</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -4945,7 +5035,7 @@
       <c r="B47" t="s">
         <v>475</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -4971,8 +5061,8 @@
       <c r="B48" t="s">
         <v>475</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>197</v>
+      <c r="C48" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>212</v>
@@ -5027,8 +5117,8 @@
       <c r="B49" t="s">
         <v>475</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>212</v>
+      <c r="C49" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>203</v>
@@ -5073,7 +5163,7 @@
       <c r="B50" t="s">
         <v>475</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5101,7 +5191,7 @@
       <c r="B51" t="s">
         <v>475</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -5127,7 +5217,7 @@
       <c r="B52" t="s">
         <v>475</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5153,7 +5243,7 @@
       <c r="B53" t="s">
         <v>475</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5179,7 +5269,7 @@
       <c r="B54" t="s">
         <v>475</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5211,7 +5301,7 @@
       <c r="B55" t="s">
         <v>475</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -5241,7 +5331,7 @@
       <c r="B56" t="s">
         <v>475</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5267,7 +5357,7 @@
       <c r="B57" t="s">
         <v>475</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="1"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -5297,7 +5387,7 @@
       <c r="B58" t="s">
         <v>475</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
         <v>200</v>
@@ -5327,7 +5417,7 @@
       <c r="B59" t="s">
         <v>475</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="1"/>
       <c r="D59" s="2" t="s">
         <v>208</v>
       </c>
@@ -5353,7 +5443,7 @@
       <c r="B60" t="s">
         <v>475</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5379,7 +5469,7 @@
       <c r="B61" t="s">
         <v>475</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -5405,7 +5495,7 @@
       <c r="B62" t="s">
         <v>475</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5431,7 +5521,7 @@
       <c r="B63" t="s">
         <v>475</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -5457,7 +5547,7 @@
       <c r="B64" t="s">
         <v>475</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
         <v>212</v>
@@ -5483,7 +5573,7 @@
       <c r="B65" t="s">
         <v>475</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="1"/>
       <c r="D65" s="2" t="s">
         <v>200</v>
       </c>
@@ -5509,7 +5599,7 @@
       <c r="B66" t="s">
         <v>475</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -5535,7 +5625,7 @@
       <c r="B67" t="s">
         <v>475</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="1"/>
       <c r="D67" s="2" t="s">
         <v>197</v>
       </c>
@@ -5561,7 +5651,7 @@
       <c r="B68" t="s">
         <v>475</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -5587,7 +5677,7 @@
       <c r="B69" t="s">
         <v>475</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
         <v>197</v>
@@ -5613,7 +5703,7 @@
       <c r="B70" t="s">
         <v>475</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -5639,7 +5729,7 @@
       <c r="B71" t="s">
         <v>475</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="1"/>
       <c r="D71" s="2" t="s">
         <v>217</v>
       </c>
@@ -5665,7 +5755,7 @@
       <c r="B72" t="s">
         <v>475</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -5691,7 +5781,7 @@
       <c r="B73" t="s">
         <v>475</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="1"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
@@ -5717,7 +5807,7 @@
       <c r="B74" t="s">
         <v>475</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -5743,7 +5833,7 @@
       <c r="B75" t="s">
         <v>475</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -5769,7 +5859,7 @@
       <c r="B76" t="s">
         <v>475</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -5795,7 +5885,7 @@
       <c r="B77" t="s">
         <v>475</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
@@ -5821,7 +5911,7 @@
       <c r="B78" t="s">
         <v>475</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -5847,7 +5937,7 @@
       <c r="B79" t="s">
         <v>475</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="1"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -5873,7 +5963,7 @@
       <c r="B80" t="s">
         <v>475</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -5899,7 +5989,7 @@
       <c r="B81" t="s">
         <v>475</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="1"/>
       <c r="D81" s="2" t="s">
         <v>139</v>
       </c>
@@ -5925,7 +6015,7 @@
       <c r="B82" t="s">
         <v>475</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -5951,8 +6041,8 @@
       <c r="B83" t="s">
         <v>475</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>146</v>
+      <c r="C83" s="1" t="s">
+        <v>506</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>215</v>
@@ -5983,7 +6073,7 @@
       <c r="B84" t="s">
         <v>475</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -6009,7 +6099,7 @@
       <c r="B85" t="s">
         <v>475</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="1"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -6035,7 +6125,7 @@
       <c r="B86" t="s">
         <v>475</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="2"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
@@ -6061,7 +6151,7 @@
       <c r="B87" t="s">
         <v>475</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="1"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -11329,7 +11419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181CA592-2680-41CA-AE82-BCD67AD965B5}">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>

--- a/Excels/data/2009.xlsx
+++ b/Excels/data/2009.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zaka\Desktop\MOTOGP\Excels\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02497BBA-B92F-4CD4-B725-8EDC2EB22B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88BBA8E4-42A5-4FA8-9788-2993488E04E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18075" windowHeight="12255" tabRatio="734" firstSheet="3" activeTab="9" xr2:uid="{A0F1E3CD-F361-4A7D-8A19-C0A564414E98}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" tabRatio="734" firstSheet="3" activeTab="9" xr2:uid="{A0F1E3CD-F361-4A7D-8A19-C0A564414E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="2" r:id="rId1"/>
@@ -2625,7 +2625,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2900,8 +2900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9205405D-7E9E-4E58-A60C-8DB8AE926E83}">
   <dimension ref="A1:AA89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,28 +3023,28 @@
       <c r="J2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3079,28 +3079,28 @@
       <c r="J3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>137</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3135,28 +3135,28 @@
       <c r="J4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3191,28 +3191,28 @@
       <c r="J5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="O5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3247,28 +3247,28 @@
       <c r="J6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="O6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3303,28 +3303,28 @@
       <c r="J7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3359,15 +3359,12 @@
       <c r="J8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="N8" s="1" t="s">
         <v>139</v>
       </c>
@@ -3375,12 +3372,15 @@
         <v>139</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>151</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3415,28 +3415,28 @@
       <c r="J9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="P9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3471,28 +3471,28 @@
       <c r="J10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>151</v>
       </c>
       <c r="O10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="Q10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3527,28 +3527,28 @@
       <c r="J11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L11" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>148</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="Q11" s="2" t="s">
         <v>139</v>
       </c>
       <c r="R11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3583,28 +3583,28 @@
       <c r="J12" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="M12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3639,28 +3639,28 @@
       <c r="J13" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L13" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>147</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>145</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="R13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3695,28 +3695,28 @@
       <c r="J14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3751,28 +3751,28 @@
       <c r="J15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="P15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Q15" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S15" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       <c r="J16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="N16" s="1" t="s">
         <v>139</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R16" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>265</v>
       </c>
@@ -3863,32 +3863,32 @@
       <c r="J17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>267</v>
       </c>
@@ -3919,32 +3919,32 @@
       <c r="J18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>269</v>
       </c>
@@ -3975,32 +3975,32 @@
       <c r="J19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L19" s="2" t="s">
         <v>139</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N19" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="O19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="Q19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R19" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="R19" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>271</v>
       </c>
@@ -4031,32 +4031,32 @@
       <c r="J20" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="M20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>272</v>
       </c>
@@ -4087,32 +4087,32 @@
       <c r="J21" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S21" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>274</v>
       </c>
@@ -4143,32 +4143,32 @@
       <c r="J22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="N22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>275</v>
       </c>
@@ -4187,7 +4187,6 @@
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4195,8 +4194,9 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>275</v>
       </c>
@@ -4215,32 +4215,32 @@
       <c r="J24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="M24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q24" s="1" t="s">
+      <c r="R24" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>276</v>
       </c>
@@ -4257,20 +4257,20 @@
       <c r="J25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2" t="s">
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>277</v>
       </c>
@@ -4301,32 +4301,32 @@
       <c r="J26" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="O26" s="1" t="s">
         <v>139</v>
       </c>
       <c r="P26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>279</v>
       </c>
@@ -4349,7 +4349,6 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4357,8 +4356,9 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>279</v>
       </c>
@@ -4375,32 +4375,32 @@
       <c r="J28" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>281</v>
       </c>
@@ -4431,9 +4431,6 @@
       <c r="J29" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L29" s="2" t="s">
         <v>139</v>
       </c>
@@ -4443,14 +4440,17 @@
       <c r="N29" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="O29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R29" s="2"/>
+      <c r="S29" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>282</v>
       </c>
@@ -4467,18 +4467,18 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>283</v>
       </c>
@@ -4509,30 +4509,30 @@
       <c r="J31" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L31" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2" t="s">
+      <c r="M31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="P31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="R31" s="2" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>284</v>
       </c>
@@ -4563,32 +4563,32 @@
       <c r="J32" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P32" s="1" t="s">
         <v>139</v>
       </c>
       <c r="Q32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R32" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>286</v>
       </c>
@@ -4603,18 +4603,18 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>288</v>
       </c>
@@ -4631,7 +4631,6 @@
         <v>145</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -4639,8 +4638,9 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>289</v>
       </c>
@@ -4657,7 +4657,6 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4665,8 +4664,9 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>291</v>
       </c>
@@ -4683,7 +4683,6 @@
       <c r="J36" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -4691,8 +4690,9 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>292</v>
       </c>
@@ -4707,18 +4707,18 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>293</v>
       </c>
@@ -4733,18 +4733,18 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>294</v>
       </c>
@@ -4775,22 +4775,22 @@
       <c r="J39" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="N39" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>295</v>
       </c>
@@ -4807,20 +4807,20 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="1"/>
+      <c r="O40" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>296</v>
       </c>
@@ -4839,20 +4839,20 @@
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="2" t="s">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-      <c r="R41" s="2" t="s">
+      <c r="R41" s="2"/>
+      <c r="S41" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>297</v>
       </c>
@@ -4869,7 +4869,6 @@
         <v>196</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -4877,8 +4876,9 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>298</v>
       </c>
@@ -4909,32 +4909,32 @@
       <c r="J43" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>208</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="P43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q43" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Q43" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S43" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>299</v>
       </c>
@@ -4953,20 +4953,20 @@
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
-      <c r="R44" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R44" s="1"/>
+      <c r="S44" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>300</v>
       </c>
@@ -4981,26 +4981,26 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="O45" s="2" t="s">
+      <c r="P45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="R45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="R45" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>301</v>
       </c>
@@ -5017,18 +5017,18 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="1"/>
+      <c r="P46" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>302</v>
       </c>
@@ -5043,18 +5043,18 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
-      <c r="Q47" s="2" t="s">
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="R47" s="2"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47" s="2"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>303</v>
       </c>
@@ -5085,32 +5085,32 @@
       <c r="J48" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>210</v>
       </c>
       <c r="N48" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O48" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="Q48" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="Q48" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R48" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>304</v>
       </c>
@@ -5141,22 +5141,22 @@
       <c r="J49" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L49" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N49" s="2"/>
+      <c r="N49" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49" s="2"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>305</v>
       </c>
@@ -5171,20 +5171,20 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="1"/>
+      <c r="O50" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>306</v>
       </c>
@@ -5201,7 +5201,6 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -5209,8 +5208,9 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>307</v>
       </c>
@@ -5227,7 +5227,6 @@
       <c r="J52" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -5235,8 +5234,9 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>308</v>
       </c>
@@ -5251,18 +5251,18 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
-      <c r="Q53" s="2" t="s">
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="R53" s="2"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S53" s="2"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>309</v>
       </c>
@@ -5277,24 +5277,24 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="1"/>
+      <c r="P54" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="Q54" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q54" s="1" t="s">
+      <c r="R54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="S54" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>310</v>
       </c>
@@ -5311,20 +5311,20 @@
         <v>202</v>
       </c>
       <c r="J55" s="2"/>
-      <c r="K55" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="L55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>311</v>
       </c>
@@ -5341,7 +5341,6 @@
       <c r="J56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -5349,8 +5348,9 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S56" s="1"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>312</v>
       </c>
@@ -5367,20 +5367,20 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="2"/>
+      <c r="M57" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2" t="s">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>313</v>
       </c>
@@ -5399,18 +5399,18 @@
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="1"/>
+      <c r="P58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>314</v>
       </c>
@@ -5427,7 +5427,6 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -5435,8 +5434,9 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>315</v>
       </c>
@@ -5451,18 +5451,18 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1" t="s">
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S60" s="1"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>316</v>
       </c>
@@ -5479,7 +5479,6 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -5487,8 +5486,9 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S61" s="2"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>317</v>
       </c>
@@ -5505,7 +5505,6 @@
         <v>208</v>
       </c>
       <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -5513,8 +5512,9 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S62" s="1"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>318</v>
       </c>
@@ -5529,18 +5529,18 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="2" t="s">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="O63" s="2"/>
       <c r="P63" s="2"/>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S63" s="2"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>319</v>
       </c>
@@ -5557,7 +5557,6 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -5565,8 +5564,9 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S64" s="1"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>320</v>
       </c>
@@ -5583,7 +5583,6 @@
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -5591,8 +5590,9 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S65" s="2"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>321</v>
       </c>
@@ -5607,18 +5607,18 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="1" t="s">
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S66" s="1"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>322</v>
       </c>
@@ -5635,7 +5635,6 @@
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -5643,8 +5642,9 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S67" s="2"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>323</v>
       </c>
@@ -5659,18 +5659,18 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="1" t="s">
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S68" s="1"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>324</v>
       </c>
@@ -5687,7 +5687,6 @@
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -5695,8 +5694,9 @@
       <c r="P69" s="2"/>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S69" s="2"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>325</v>
       </c>
@@ -5711,18 +5711,18 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1" t="s">
+      <c r="L70" s="1"/>
+      <c r="M70" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S70" s="1"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>326</v>
       </c>
@@ -5739,7 +5739,6 @@
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -5747,8 +5746,9 @@
       <c r="P71" s="2"/>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S71" s="2"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>327</v>
       </c>
@@ -5763,18 +5763,18 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1" t="s">
+      <c r="L72" s="1"/>
+      <c r="M72" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S72" s="1"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>328</v>
       </c>
@@ -5791,7 +5791,6 @@
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -5799,8 +5798,9 @@
       <c r="P73" s="2"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S73" s="2"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>329</v>
       </c>
@@ -5815,18 +5815,18 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S74" s="1"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>330</v>
       </c>
@@ -5841,18 +5841,18 @@
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
-      <c r="K75" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>331</v>
       </c>
@@ -5869,7 +5869,6 @@
       <c r="J76" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -5877,8 +5876,9 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S76" s="1"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>332</v>
       </c>
@@ -5895,7 +5895,6 @@
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -5903,8 +5902,9 @@
       <c r="P77" s="2"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="2"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77" s="2"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>333</v>
       </c>
@@ -5919,18 +5919,18 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
-      <c r="K78" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L78" s="1"/>
+      <c r="L78" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78" s="1"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>228</v>
       </c>
@@ -5945,18 +5945,18 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
       <c r="Q79" s="2"/>
-      <c r="R79" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R79" s="2"/>
+      <c r="S79" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>334</v>
       </c>
@@ -5971,18 +5971,18 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S80" s="1"/>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>335</v>
       </c>
@@ -5999,7 +5999,6 @@
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -6007,8 +6006,9 @@
       <c r="P81" s="2"/>
       <c r="Q81" s="2"/>
       <c r="R81" s="2"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S81" s="2"/>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>336</v>
       </c>
@@ -6023,18 +6023,18 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S82" s="1"/>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>337</v>
       </c>
@@ -6057,7 +6057,6 @@
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -6065,8 +6064,9 @@
       <c r="P83" s="2"/>
       <c r="Q83" s="2"/>
       <c r="R83" s="2"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S83" s="2"/>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>338</v>
       </c>
@@ -6081,18 +6081,18 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="1" t="s">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>339</v>
       </c>
@@ -6107,18 +6107,18 @@
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
       <c r="Q85" s="2"/>
-      <c r="R85" s="2" t="s">
+      <c r="R85" s="2"/>
+      <c r="S85" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>340</v>
       </c>
@@ -6135,7 +6135,6 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -6143,8 +6142,9 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S86" s="1"/>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>341</v>
       </c>
@@ -6161,7 +6161,6 @@
         <v>215</v>
       </c>
       <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -6169,13 +6168,14 @@
       <c r="P87" s="2"/>
       <c r="Q87" s="2"/>
       <c r="R87" s="2"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S87" s="2"/>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>475</v>
       </c>
@@ -12849,8 +12849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAB0660-0039-4C1E-93B0-7940F84DA9A8}">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12972,28 +12972,28 @@
       <c r="J2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>140</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>148</v>
       </c>
     </row>
@@ -13028,28 +13028,28 @@
       <c r="J3" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>135</v>
       </c>
     </row>
@@ -13084,28 +13084,28 @@
       <c r="J4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13140,11 +13140,8 @@
       <c r="J5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>137</v>
@@ -13153,15 +13150,18 @@
         <v>137</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q5" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -13196,28 +13196,28 @@
       <c r="J6" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="N6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="Q6" s="1" t="s">
         <v>139</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13252,28 +13252,28 @@
       <c r="J7" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="P7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13308,28 +13308,28 @@
       <c r="J8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13364,28 +13364,28 @@
       <c r="J9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>145</v>
       </c>
     </row>
@@ -13420,28 +13420,28 @@
       <c r="J10" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="L10" s="1" t="s">
         <v>143</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13476,28 +13476,28 @@
       <c r="J11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="M11" s="2" t="s">
         <v>139</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -13532,28 +13532,28 @@
       <c r="J12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>139</v>
       </c>
       <c r="P12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="R12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>142</v>
       </c>
     </row>
@@ -13588,28 +13588,28 @@
       <c r="J13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="N13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="R13" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13644,28 +13644,28 @@
       <c r="J14" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="N14" s="1" t="s">
         <v>139</v>
       </c>
       <c r="O14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>138</v>
       </c>
     </row>
@@ -13700,28 +13700,28 @@
       <c r="J15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="M15" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>141</v>
       </c>
     </row>
@@ -13756,32 +13756,32 @@
       <c r="J16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="L16" s="1" t="s">
         <v>147</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="O16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>192</v>
       </c>
@@ -13812,32 +13812,32 @@
       <c r="J17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="M17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="Q17" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>194</v>
       </c>
@@ -13868,32 +13868,32 @@
       <c r="J18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="P18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -13914,7 +13914,6 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -13922,8 +13921,9 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>199</v>
       </c>
@@ -13940,24 +13940,24 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
@@ -13976,7 +13976,6 @@
       <c r="J21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -13984,8 +13983,9 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>204</v>
       </c>
@@ -14012,32 +14012,32 @@
       <c r="J22" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="R22" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>205</v>
       </c>
@@ -14068,9 +14068,6 @@
       <c r="J23" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="L23" s="2" t="s">
         <v>110</v>
       </c>
@@ -14078,7 +14075,7 @@
         <v>110</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>196</v>
@@ -14087,13 +14084,16 @@
         <v>196</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="R23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>207</v>
       </c>
@@ -14112,32 +14112,32 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="L24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>136</v>
       </c>
       <c r="Q24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>209</v>
       </c>
@@ -14168,30 +14168,30 @@
       <c r="J25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="2"/>
+      <c r="M25" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="O25" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="P25" s="2" t="s">
         <v>139</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>211</v>
       </c>
@@ -14222,24 +14222,24 @@
       <c r="J26" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="L26" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="M26" s="1" t="s">
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="O26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>211</v>
       </c>
@@ -14254,24 +14254,24 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" s="2" t="s">
         <v>110</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="R27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>213</v>
       </c>
@@ -14302,32 +14302,32 @@
       <c r="J28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="Q28" s="1" t="s">
         <v>139</v>
       </c>
       <c r="R28" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>214</v>
       </c>
@@ -14350,7 +14350,6 @@
         <v>139</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -14358,8 +14357,9 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>214</v>
       </c>
@@ -14376,22 +14376,22 @@
       <c r="J30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>216</v>
       </c>
@@ -14408,7 +14408,6 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -14416,8 +14415,9 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>218</v>
       </c>
@@ -14436,7 +14436,6 @@
         <v>139</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -14444,8 +14443,9 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>219</v>
       </c>
@@ -14468,22 +14468,22 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>221</v>
       </c>
@@ -14498,18 +14498,18 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="1" t="s">
+      <c r="R34" s="1"/>
+      <c r="S34" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>222</v>
       </c>
@@ -14524,18 +14524,18 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="2"/>
+      <c r="N35" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>223</v>
       </c>
@@ -14550,18 +14550,18 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>224</v>
       </c>
@@ -14576,18 +14576,18 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="2" t="s">
+      <c r="O37" s="2"/>
+      <c r="P37" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>225</v>
       </c>
@@ -14602,18 +14602,18 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="1"/>
+      <c r="N38" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>226</v>
       </c>
@@ -14630,7 +14630,6 @@
       <c r="J39" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -14638,8 +14637,9 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S39" s="2"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>227</v>
       </c>
@@ -14656,7 +14656,6 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -14664,8 +14663,9 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>228</v>
       </c>
@@ -14682,7 +14682,6 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -14690,8 +14689,9 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>229</v>
       </c>
@@ -14708,7 +14708,6 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -14716,8 +14715,9 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>230</v>
       </c>
@@ -14732,18 +14732,18 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" s="2"/>
+      <c r="L43" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S43" s="2"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>231</v>
       </c>
@@ -14760,7 +14760,6 @@
       <c r="J44" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -14768,8 +14767,9 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -14788,7 +14788,6 @@
       <c r="J45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -14796,8 +14795,9 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S45" s="2"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>233</v>
       </c>
@@ -14812,23 +14812,23 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="L46" s="1"/>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>474</v>
       </c>
